--- a/docs/StructureDefinition-LTCConditionProblem.xlsx
+++ b/docs/StructureDefinition-LTCConditionProblem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-LTCConditionProblem.xlsx
+++ b/docs/StructureDefinition-LTCConditionProblem.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
